--- a/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/DM_PIE/Sujeto_Posicion_optimization_2.xlsx
+++ b/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/DM_PIE/Sujeto_Posicion_optimization_2.xlsx
@@ -12,116 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>dropout</t>
-  </si>
-  <si>
-    <t>activation</t>
-  </si>
-  <si>
-    <t>optimization</t>
-  </si>
-  <si>
-    <t>neurons</t>
-  </si>
-  <si>
-    <t>batch_size</t>
-  </si>
-  <si>
-    <t>hidden_layers</t>
-  </si>
-  <si>
-    <t>CORRELATION</t>
-  </si>
-  <si>
-    <t>FISHER</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>tanh</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>Adamax</t>
-  </si>
-  <si>
-    <t>0.8184572982500055</t>
-  </si>
-  <si>
-    <t>1.1521264424576971</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>0.8053955032119164</t>
-  </si>
-  <si>
-    <t>1.1137828423901126</t>
-  </si>
-  <si>
-    <t>RMSprop</t>
-  </si>
-  <si>
-    <t>0.7942204836705803</t>
-  </si>
-  <si>
-    <t>1.0827603245722686</t>
-  </si>
-  <si>
-    <t>Nadam</t>
-  </si>
-  <si>
-    <t>0.7282419399571647</t>
-  </si>
-  <si>
-    <t>0.9249738828899321</t>
-  </si>
-  <si>
-    <t>Adagrad</t>
-  </si>
-  <si>
-    <t>0.6399035346421207</t>
-  </si>
-  <si>
-    <t>0.7580103719325899</t>
-  </si>
-  <si>
-    <t>Adadelta</t>
-  </si>
-  <si>
-    <t>-6.776578940913297e-08</t>
-  </si>
-  <si>
-    <t>-6.776578940913309e-08</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,257 +366,401 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neurons</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>hidden_layers</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dropout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>optimization</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>activation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CORRELATION</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nadam</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.6197870442930417</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.7246592299703992</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.6196970058585669</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.7245130446528435</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4">
       <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.618490441041701</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.7225566303154763</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Adagrad</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.6181389747925173</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.7219876264123022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.27587766269685216</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.2832146156960701</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.15584742318233213</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.15712789858863285</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    <row r="8">
       <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Adadelta</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>hard_sigmoid</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.14776362071959223</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.1488533607808978</t>
+        </is>
       </c>
     </row>
   </sheetData>
